--- a/planilha/fevereiro/Escala ASO1 - Santa Efigênia - 1° Turno - Fevereiro.xlsx
+++ b/planilha/fevereiro/Escala ASO1 - Santa Efigênia - 1° Turno - Fevereiro.xlsx
@@ -88,7 +88,7 @@
     <t>Carla Erica</t>
   </si>
   <si>
-    <t>Diego Salerno</t>
+    <t>Barbara Andrade</t>
   </si>
   <si>
     <t>4</t>
@@ -103,7 +103,7 @@
     <t>Icaro Roosewelt</t>
   </si>
   <si>
-    <t>29/01/20</t>
+    <t>31/01/20</t>
   </si>
 </sst>
 </file>
